--- a/out_of_sample_direct_results/dunn_matrix_maxsharpe_out_sample_direct_t162.xlsx
+++ b/out_of_sample_direct_results/dunn_matrix_maxsharpe_out_sample_direct_t162.xlsx
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0346</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -497,16 +497,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.0094</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -532,16 +532,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.0106</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.0106</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.0346</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -602,19 +602,19 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0388</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -625,31 +625,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.049</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0298</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -657,22 +657,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.049</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -692,22 +692,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.0298</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -727,22 +727,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0.0094</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.0106</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0.0106</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.0388</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -845,28 +845,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0346</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -892,16 +892,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9395</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.0064</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -927,16 +927,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.0072</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -962,16 +962,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.0072</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.0346</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -997,19 +997,19 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0048</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0388</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1020,31 +1020,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.9395</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0048</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.0531</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0325</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1052,22 +1052,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0531</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1087,22 +1087,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.0325</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1122,22 +1122,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0.0064</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.0072</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0.0072</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.0388</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.0069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1169,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0069</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1240,16 +1240,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.3066</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2604</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2552</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9436</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3066</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2604</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2552</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1377,7 +1377,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9436</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1392,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.105</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.105</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1474,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.1077</v>
+        <v>0.1844</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.1038</v>
+        <v>0.1864</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.1037</v>
+        <v>0.187</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1775,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1077</v>
+        <v>0.1844</v>
       </c>
       <c r="D6">
-        <v>0.1038</v>
+        <v>0.1864</v>
       </c>
       <c r="E6">
-        <v>0.1037</v>
+        <v>0.187</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1869,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1939,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.0003</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1965,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0003</v>
+        <v>0.0015</v>
       </c>
       <c r="K11">
         <v>1</v>
